--- a/0_0_Data/2_Processed_Data/3_gdp_component_forecast/qoq_forecast_data_DOMUSE.xlsx
+++ b/0_0_Data/2_Processed_Data/3_gdp_component_forecast/qoq_forecast_data_DOMUSE.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +546,11 @@
       <c r="BA1" s="2">
         <v>45891</v>
       </c>
-    </row>
-    <row r="2" spans="1:53">
+      <c r="BB1" s="2">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="2">
         <v>39401</v>
       </c>
@@ -555,7 +558,7 @@
         <v>0.6862121467008387</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="2">
         <v>39493</v>
       </c>
@@ -563,7 +566,7 @@
         <v>0.2275486077354662</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="2">
         <v>39583</v>
       </c>
@@ -574,7 +577,7 @@
         <v>-0.9716635481116656</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="2">
         <v>39675</v>
       </c>
@@ -585,7 +588,7 @@
         <v>0.2805049688864443</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="2">
         <v>39767</v>
       </c>
@@ -599,7 +602,7 @@
         <v>-0.6760650065702858</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="2">
         <v>39859</v>
       </c>
@@ -610,7 +613,7 @@
         <v>-0.04573875985788579</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="2">
         <v>39948</v>
       </c>
@@ -624,7 +627,7 @@
         <v>-0.4726963440578849</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="2">
         <v>40040</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.1769623127656392</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="2">
         <v>40132</v>
       </c>
@@ -655,7 +658,7 @@
         <v>0.2080098490516883</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="2">
         <v>40224</v>
       </c>
@@ -666,7 +669,7 @@
         <v>0.2409726375546795</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="2">
         <v>40313</v>
       </c>
@@ -680,7 +683,7 @@
         <v>0.03734130806860806</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="2">
         <v>40405</v>
       </c>
@@ -694,7 +697,7 @@
         <v>0.01272818083837047</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="2">
         <v>40497</v>
       </c>
@@ -711,7 +714,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="2">
         <v>40589</v>
       </c>
@@ -722,7 +725,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="2">
         <v>40678</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>0.2394101325822788</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="2">
         <v>45153</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>-0.04072131480353391</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="2">
         <v>45245</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>-0.07958838003274593</v>
       </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="2">
         <v>45337</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>0.02912383308249389</v>
       </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="2">
         <v>45427</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>-0.1311265493919933</v>
       </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="2">
         <v>45519</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>-0.03907468377752821</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="2">
         <v>45611</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>0.1771324545010202</v>
       </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="2">
         <v>45703</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>0.4946531409412387</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="2">
         <v>45792</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>0.202428137729683</v>
       </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="2">
         <v>45884</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>0.208573386070384</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="2">
         <v>45976</v>
       </c>
@@ -2039,8 +2042,11 @@
       <c r="BA74">
         <v>0.2674348167636964</v>
       </c>
-    </row>
-    <row r="75" spans="1:53">
+      <c r="BB74">
+        <v>0.03661603668101066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54">
       <c r="A75" s="2">
         <v>46068</v>
       </c>
@@ -2059,8 +2065,11 @@
       <c r="BA75">
         <v>0.3555941873737254</v>
       </c>
-    </row>
-    <row r="76" spans="1:53">
+      <c r="BB75">
+        <v>0.2640648593829269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54">
       <c r="A76" s="2">
         <v>46157</v>
       </c>
@@ -2079,8 +2088,11 @@
       <c r="BA76">
         <v>0.4043874803887348</v>
       </c>
-    </row>
-    <row r="77" spans="1:53">
+      <c r="BB76">
+        <v>0.2655881053388356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54">
       <c r="A77" s="2">
         <v>46249</v>
       </c>
@@ -2099,8 +2111,11 @@
       <c r="BA77">
         <v>0.3774219881210286</v>
       </c>
-    </row>
-    <row r="78" spans="1:53">
+      <c r="BB77">
+        <v>0.3113703469102518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54">
       <c r="A78" s="2">
         <v>46341</v>
       </c>
@@ -2119,37 +2134,52 @@
       <c r="BA78">
         <v>0.3895284750537513</v>
       </c>
-    </row>
-    <row r="79" spans="1:53">
+      <c r="BB78">
+        <v>0.2471105891854677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:54">
       <c r="A79" s="2">
         <v>46433</v>
       </c>
       <c r="BA79">
         <v>0.3666559094720299</v>
       </c>
-    </row>
-    <row r="80" spans="1:53">
+      <c r="BB79">
+        <v>0.2679422975497232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:54">
       <c r="A80" s="2">
         <v>46522</v>
       </c>
       <c r="BA80">
         <v>0.3653772314850414</v>
       </c>
-    </row>
-    <row r="81" spans="1:53">
+      <c r="BB80">
+        <v>0.2557369934843052</v>
+      </c>
+    </row>
+    <row r="81" spans="1:54">
       <c r="A81" s="2">
         <v>46614</v>
       </c>
       <c r="BA81">
         <v>0.3567660831537864</v>
       </c>
-    </row>
-    <row r="82" spans="1:53">
+      <c r="BB81">
+        <v>0.2533526447878245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:54">
       <c r="A82" s="2">
         <v>46706</v>
       </c>
       <c r="BA82">
         <v>0.3234349674377626</v>
+      </c>
+      <c r="BB82">
+        <v>0.237717410629898</v>
       </c>
     </row>
   </sheetData>
